--- a/Outputs/3. Prosumer percentage/Output Files/40/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/40/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2239395.697160068</v>
+        <v>2201466.911897828</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779177</v>
+        <v>421727.3537779181</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481811</v>
+        <v>7956703.636481817</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.293863480540836</v>
+        <v>109.1896825586218</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>145.9899482601506</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>138.7968080117393</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -788,25 +788,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>52.17893376633712</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.07907767104376</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.769294906232044</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.18717222425754</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5.448126808926983</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
@@ -1043,7 +1043,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>10.38017012637138</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>128.2491389318542</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,50 +1150,50 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="I8" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>205.8649517235392</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>82.63509637205084</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.2549344362514</v>
+        <v>169.2383676853886</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6102553529482</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>148.3030280916774</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -1466,7 +1466,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>63.56783007605712</v>
@@ -1514,7 +1514,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>163.2341125392161</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.3615285297116</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>188.2409070686243</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>143.9263731675594</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>15.25670791831954</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.11577975570017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1736,7 +1736,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T15" t="n">
         <v>195.6974464808964</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.17614171514473</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
-        <v>143.4656465272897</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>27.81127838148457</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>186.5734789078304</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>10.77708785252926</v>
+        <v>64.11181809253137</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.43275451522956</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>110.5035676309304</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>108.7179383032046</v>
+        <v>21.31989090102603</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605711</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2225,10 +2225,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>194.5623356591579</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>58.41480556394149</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.79058325526346</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.9952185368712</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>50.42797305210072</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>160.1933886396684</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
@@ -2335,10 +2335,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>54.33983281692743</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>102.2787150142871</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T24" t="n">
         <v>195.6974464808964</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.894281181107367</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.124680396704579</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>126.3872651869043</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>96.94352002426758</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
         <v>157.2246747536534</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>177.493467653868</v>
@@ -2614,7 +2614,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>61.81771630496194</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>94.12953483606209</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>35.69196057755455</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>88.17748785667567</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -2806,7 +2806,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>85.04200227548824</v>
       </c>
       <c r="Y29" t="n">
-        <v>282.8919676917427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2882,7 +2882,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>135.3570519053243</v>
@@ -2936,7 +2936,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>202.7115158373829</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.3801900072068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>83.51342957218336</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>175.8485951202521</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>212.0386208165702</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>133.606938134229</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>157.419163563275</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
-        <v>123.8960088696167</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>403.0228500503176</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>58.00230140858147</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3350,7 +3350,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>104.8849065053834</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3362,10 +3362,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>179.9047685599329</v>
       </c>
       <c r="U37" t="n">
-        <v>123.9862468528283</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
@@ -3556,16 +3556,16 @@
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>140.1186237847645</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>186.1616664353321</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -3584,7 +3584,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3593,10 +3593,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>133.606938134229</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
         <v>104.0288287853823</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>139.5950575351118</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.696742040683396</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>174.3791888875506</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>287.1994116492291</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3824,13 +3824,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.3570519053243</v>
@@ -3839,7 +3839,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
-        <v>61.81771630496191</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.51342957218341</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>150.8573325918307</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>239.857052954575</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>301.2230200699047</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4073,7 +4073,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>63.56783007605712</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>12.10721317073962</v>
       </c>
       <c r="S45" t="n">
         <v>156.5880156630749</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>56.11588086046235</v>
       </c>
       <c r="T46" t="n">
-        <v>117.771876071748</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.2782741702153</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="C2" t="n">
-        <v>252.2782741702153</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="D2" t="n">
-        <v>252.2782741702153</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="E2" t="n">
-        <v>252.2782741702153</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="F2" t="n">
-        <v>244.9107353009821</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
         <v>22.60864108688619</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>806.3869758704224</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U2" t="n">
-        <v>806.3869758704224</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V2" t="n">
-        <v>806.3869758704224</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="W2" t="n">
-        <v>529.3326250203188</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="X2" t="n">
-        <v>529.3326250203188</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="Y2" t="n">
-        <v>252.2782741702153</v>
+        <v>409.9556005820623</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.1283461877169</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="C3" t="n">
-        <v>407.1283461877169</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="D3" t="n">
-        <v>266.9295502162631</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3200212191178</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4412,22 +4412,22 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="M3" t="n">
-        <v>548.9545891439176</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>820.4955584121041</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1019.066028247101</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>801.0973387912989</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U3" t="n">
-        <v>574.1708973092774</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V3" t="n">
-        <v>574.1708973092774</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W3" t="n">
-        <v>574.1708973092774</v>
+        <v>778.1094440804778</v>
       </c>
       <c r="X3" t="n">
-        <v>574.1708973092774</v>
+        <v>571.5825454860553</v>
       </c>
       <c r="Y3" t="n">
-        <v>574.1708973092774</v>
+        <v>365.8541097097058</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4512,28 +4512,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.0562198267585</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="C5" t="n">
-        <v>314.0018689766549</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="D5" t="n">
-        <v>314.0018689766549</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="E5" t="n">
-        <v>314.0018689766549</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F5" t="n">
-        <v>36.94751812655136</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1093.327860774256</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1093.327860774256</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>868.110570676862</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>868.110570676862</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>868.110570676862</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>868.110570676862</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>868.110570676862</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.110570676862</v>
+        <v>953.8515700725947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>371.7740475227595</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>371.7740475227595</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>224.1857408817033</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>66.57621188455803</v>
       </c>
       <c r="F6" t="n">
         <v>21.9427045873282</v>
@@ -4649,49 +4649,49 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>168.577974491964</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M6" t="n">
-        <v>440.1189437601505</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N6" t="n">
-        <v>711.659913028337</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O6" t="n">
-        <v>979.5395320056577</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>926.4669324920217</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>926.4669324920217</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U6" t="n">
-        <v>920.9637740991661</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V6" t="n">
-        <v>686.7125306247669</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W6" t="n">
-        <v>434.1980389581003</v>
+        <v>578.300946117182</v>
       </c>
       <c r="X6" t="n">
-        <v>227.6711403636777</v>
+        <v>371.7740475227595</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>371.7740475227595</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>192.1780141986787</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4770,7 +4770,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>528.6666885207608</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="C8" t="n">
-        <v>528.6666885207608</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="D8" t="n">
-        <v>528.6666885207608</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E8" t="n">
-        <v>528.6666885207608</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F8" t="n">
-        <v>521.2991496515276</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G8" t="n">
-        <v>506.2943361123045</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>229.2399852622009</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>889.1908336860672</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T8" t="n">
-        <v>889.1908336860672</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U8" t="n">
-        <v>805.7210393708643</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V8" t="n">
-        <v>805.7210393708643</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="W8" t="n">
-        <v>805.7210393708643</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X8" t="n">
-        <v>805.7210393708643</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y8" t="n">
-        <v>528.6666885207608</v>
+        <v>451.5799291250968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>663.4933373898193</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>663.4933373898193</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>515.9050307487631</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4889,16 +4889,16 @@
         <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>277.4136198757311</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M9" t="n">
-        <v>548.9545891439176</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N9" t="n">
-        <v>817.386591515115</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P9" t="n">
         <v>1015.957061350112</v>
@@ -4913,22 +4913,22 @@
         <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>801.0973387912989</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>574.1708973092774</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V9" t="n">
-        <v>574.1708973092774</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W9" t="n">
-        <v>321.6564056426107</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="X9" t="n">
-        <v>115.1295070481882</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>830.5358885113798</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1295.755028527365</v>
+        <v>1358.387884347771</v>
       </c>
       <c r="C11" t="n">
-        <v>925.063012690049</v>
+        <v>1358.387884347771</v>
       </c>
       <c r="D11" t="n">
-        <v>564.8562119278284</v>
+        <v>1358.387884347771</v>
       </c>
       <c r="E11" t="n">
-        <v>564.8562119278284</v>
+        <v>1358.387884347771</v>
       </c>
       <c r="F11" t="n">
-        <v>564.8562119278284</v>
+        <v>946.9799414381337</v>
       </c>
       <c r="G11" t="n">
-        <v>379.3913075309111</v>
+        <v>529.192346007353</v>
       </c>
       <c r="H11" t="n">
-        <v>50.71143199091319</v>
+        <v>200.5124704673551</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5071,22 +5071,22 @@
         <v>2356.285268582156</v>
       </c>
       <c r="T11" t="n">
-        <v>2356.285268582156</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U11" t="n">
-        <v>2356.285268582156</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V11" t="n">
-        <v>2024.433529670521</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="W11" t="n">
-        <v>1670.362704417435</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="X11" t="n">
-        <v>1295.755028527365</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="Y11" t="n">
-        <v>1295.755028527365</v>
+        <v>1745.980217672412</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>832.9084402786798</v>
+        <v>874.5523969142982</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>701.7992818361154</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>554.2109751950592</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>396.6014461979139</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>251.6456562145308</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H12" t="n">
         <v>114.9213613606679</v>
@@ -5123,13 +5123,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L12" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N12" t="n">
         <v>1620.913172155677</v>
@@ -5162,10 +5162,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1247.323383812208</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9509914002402</v>
+        <v>1041.594948035859</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F13" t="n">
         <v>50.71143199091319</v>
@@ -5223,28 +5223,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>529.7646791178286</v>
+        <v>487.2577239068995</v>
       </c>
       <c r="T13" t="n">
-        <v>529.7646791178286</v>
+        <v>487.2577239068995</v>
       </c>
       <c r="U13" t="n">
-        <v>240.853762363261</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="V13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="W13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="X13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1430.779000895657</v>
+        <v>1966.266776612976</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.398825978931</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="D14" t="n">
-        <v>925.1920252167099</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E14" t="n">
-        <v>538.2041103123792</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F14" t="n">
-        <v>538.2041103123792</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
         <v>829.7261648535823</v>
@@ -5290,7 +5290,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T14" t="n">
-        <v>2072.288667455001</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U14" t="n">
-        <v>1818.371334220299</v>
+        <v>2340.874452503046</v>
       </c>
       <c r="V14" t="n">
-        <v>1818.371334220299</v>
+        <v>2340.874452503046</v>
       </c>
       <c r="W14" t="n">
-        <v>1818.371334220299</v>
+        <v>2340.874452503046</v>
       </c>
       <c r="X14" t="n">
-        <v>1818.371334220299</v>
+        <v>1966.266776612976</v>
       </c>
       <c r="Y14" t="n">
-        <v>1818.371334220299</v>
+        <v>1966.266776612976</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K15" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L15" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N15" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P15" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5384,25 +5384,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.71143199091319</v>
+        <v>73.11157513752403</v>
       </c>
       <c r="C16" t="n">
         <v>50.71143199091319</v>
@@ -5460,28 +5460,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S16" t="n">
-        <v>534.6273016871237</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T16" t="n">
-        <v>534.6273016871237</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="U16" t="n">
-        <v>534.6273016871237</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="V16" t="n">
-        <v>279.1360379831448</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="W16" t="n">
-        <v>279.1360379831448</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="X16" t="n">
-        <v>50.71143199091319</v>
+        <v>73.11157513752403</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.71143199091319</v>
+        <v>73.11157513752403</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1379.923194666893</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="C17" t="n">
-        <v>1009.231178829577</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D17" t="n">
-        <v>649.0243780673565</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E17" t="n">
-        <v>620.9321776820185</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K17" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2102.367935347454</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V17" t="n">
-        <v>1770.516196435818</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W17" t="n">
-        <v>1770.516196435818</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="X17" t="n">
-        <v>1770.516196435818</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="Y17" t="n">
-        <v>1379.923194666893</v>
+        <v>1596.906423891743</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E18" t="n">
         <v>501.6810712336537</v>
@@ -5603,13 +5603,13 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
         <v>2370.209254145837</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="19">
@@ -5694,25 +5694,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>628.6047496418601</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>628.6047496418601</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>628.6047496418601</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U19" t="n">
-        <v>339.6938328872925</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V19" t="n">
-        <v>339.6938328872925</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>162.3311972746812</v>
       </c>
       <c r="X19" t="n">
         <v>50.71143199091319</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>531.2195471243953</v>
+        <v>442.9386911625987</v>
       </c>
       <c r="C20" t="n">
-        <v>160.5275312870795</v>
+        <v>72.24667532528292</v>
       </c>
       <c r="D20" t="n">
-        <v>160.5275312870795</v>
+        <v>72.24667532528292</v>
       </c>
       <c r="E20" t="n">
-        <v>160.5275312870795</v>
+        <v>72.24667532528292</v>
       </c>
       <c r="F20" t="n">
-        <v>160.5275312870795</v>
+        <v>72.24667532528292</v>
       </c>
       <c r="G20" t="n">
-        <v>160.5275312870795</v>
+        <v>72.24667532528292</v>
       </c>
       <c r="H20" t="n">
-        <v>160.5275312870795</v>
+        <v>72.24667532528292</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K20" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M20" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U20" t="n">
-        <v>2038.083383361117</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="V20" t="n">
-        <v>2038.083383361117</v>
+        <v>1949.802527399321</v>
       </c>
       <c r="W20" t="n">
-        <v>1684.012558108032</v>
+        <v>1595.731702146235</v>
       </c>
       <c r="X20" t="n">
-        <v>1309.404882217962</v>
+        <v>1221.124026256165</v>
       </c>
       <c r="Y20" t="n">
-        <v>918.8118804490367</v>
+        <v>830.5310244872402</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>842.907727096175</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C21" t="n">
-        <v>670.1546120179921</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D21" t="n">
-        <v>522.566305376936</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E21" t="n">
-        <v>364.9567763797908</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F21" t="n">
-        <v>220.0009863964076</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G21" t="n">
         <v>220.0009863964076</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606678</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L21" t="n">
-        <v>757.4212114061546</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N21" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.703836711751</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5873,10 +5873,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1215.678713994085</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1009.950278217735</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>219.7382531335418</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C22" t="n">
         <v>50.71143199091319</v>
@@ -5919,7 +5919,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
         <v>494.2381528619504</v>
@@ -5931,31 +5931,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>496.4361755452314</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="U22" t="n">
-        <v>496.4361755452314</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V22" t="n">
-        <v>496.4361755452314</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W22" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X22" t="n">
-        <v>268.0115695529998</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.0115695529998</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1409.411788950115</v>
+        <v>1757.386264452093</v>
       </c>
       <c r="C23" t="n">
-        <v>1038.719773112799</v>
+        <v>1757.386264452093</v>
       </c>
       <c r="D23" t="n">
-        <v>1038.719773112799</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E23" t="n">
-        <v>1038.719773112799</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F23" t="n">
-        <v>627.3118302031619</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K23" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V23" t="n">
-        <v>1763.4826142032</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W23" t="n">
-        <v>1409.411788950115</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X23" t="n">
-        <v>1409.411788950115</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Y23" t="n">
-        <v>1409.411788950115</v>
+        <v>2144.978597776734</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E24" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F24" t="n">
-        <v>251.6456562145308</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H24" t="n">
         <v>114.9213613606679</v>
@@ -6068,10 +6068,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K24" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L24" t="n">
         <v>573.239262455199</v>
@@ -6092,28 +6092,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G25" t="n">
         <v>50.71143199091319</v>
@@ -6168,31 +6168,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V25" t="n">
-        <v>271.6696884230023</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W25" t="n">
-        <v>271.6696884230023</v>
+        <v>448.1573553461064</v>
       </c>
       <c r="X25" t="n">
-        <v>271.6696884230023</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1095.926593539738</v>
+        <v>1495.063552881993</v>
       </c>
       <c r="C26" t="n">
-        <v>725.2345777024221</v>
+        <v>1495.063552881993</v>
       </c>
       <c r="D26" t="n">
-        <v>725.2345777024221</v>
+        <v>1495.063552881993</v>
       </c>
       <c r="E26" t="n">
-        <v>725.2345777024221</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F26" t="n">
-        <v>725.2345777024221</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G26" t="n">
-        <v>307.4469822716414</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H26" t="n">
         <v>209.5242347723812</v>
@@ -6229,16 +6229,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6250,28 +6250,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R26" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.519595308663</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W26" t="n">
-        <v>1486.519595308663</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="X26" t="n">
-        <v>1486.519595308663</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="Y26" t="n">
-        <v>1095.926593539738</v>
+        <v>1882.655886206635</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>210.0016995789124</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G27" t="n">
-        <v>210.0016995789124</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
@@ -6314,16 +6314,16 @@
         <v>687.7199234768461</v>
       </c>
       <c r="M27" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N27" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O27" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.76391742278648</v>
+        <v>308.8064226857394</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>139.7796015431108</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>139.7796015431108</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>139.7796015431108</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>139.7796015431108</v>
       </c>
       <c r="G28" t="n">
         <v>50.71143199091319</v>
@@ -6411,25 +6411,25 @@
         <v>529.7646791178286</v>
       </c>
       <c r="S28" t="n">
-        <v>314.9924154108594</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T28" t="n">
-        <v>86.76391742278648</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U28" t="n">
-        <v>86.76391742278648</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="V28" t="n">
-        <v>86.76391742278648</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="W28" t="n">
-        <v>86.76391742278648</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="X28" t="n">
-        <v>86.76391742278648</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.76391742278648</v>
+        <v>308.8064226857394</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1209.314090567102</v>
+        <v>1997.793701835199</v>
       </c>
       <c r="C29" t="n">
-        <v>1209.314090567102</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="D29" t="n">
-        <v>849.1072898048812</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E29" t="n">
-        <v>462.1193749005504</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F29" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
         <v>50.71143199091319</v>
@@ -6487,28 +6487,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R29" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S29" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2136.573219441338</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U29" t="n">
-        <v>1882.655886206635</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V29" t="n">
-        <v>1882.655886206635</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W29" t="n">
-        <v>1882.655886206635</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X29" t="n">
-        <v>1882.655886206635</v>
+        <v>2385.38603515984</v>
       </c>
       <c r="Y29" t="n">
-        <v>1596.906423891743</v>
+        <v>2385.38603515984</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>834.6762319666548</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>661.9231168884719</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D30" t="n">
-        <v>514.3348102474158</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E30" t="n">
-        <v>356.7252812502705</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F30" t="n">
         <v>356.7252812502705</v>
@@ -6542,25 +6542,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K30" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L30" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N30" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O30" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P30" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6584,10 +6584,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1207.447218864565</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>1001.718783088215</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="31">
@@ -6645,22 +6645,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>568.0469547377124</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>568.0469547377124</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>568.0469547377124</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U31" t="n">
-        <v>279.1360379831448</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V31" t="n">
-        <v>279.1360379831448</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W31" t="n">
-        <v>279.1360379831448</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X31" t="n">
         <v>50.71143199091319</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>757.8410941655072</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C32" t="n">
-        <v>387.1490783281914</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D32" t="n">
-        <v>387.1490783281914</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E32" t="n">
-        <v>387.1490783281914</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F32" t="n">
-        <v>387.1490783281914</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
@@ -6724,28 +6724,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="U32" t="n">
-        <v>1818.371334220299</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.519595308663</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="W32" t="n">
-        <v>1132.448770055577</v>
+        <v>2321.391174478417</v>
       </c>
       <c r="X32" t="n">
-        <v>757.8410941655072</v>
+        <v>1946.783498588347</v>
       </c>
       <c r="Y32" t="n">
-        <v>757.8410941655072</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9574895622956</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K33" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L33" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M33" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N33" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O33" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>495.7029193395471</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>495.7029193395471</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>348.0675441781284</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H34" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I34" t="n">
         <v>50.71143199091319</v>
@@ -6879,31 +6879,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>679.5420961591335</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="R34" t="n">
-        <v>554.39461245245</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="S34" t="n">
-        <v>339.6223487454808</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="T34" t="n">
-        <v>339.6223487454808</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="U34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="V34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>646.2135925865364</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1215.485150662174</v>
+        <v>925.1920252167099</v>
       </c>
       <c r="C35" t="n">
-        <v>844.7931348248577</v>
+        <v>925.1920252167099</v>
       </c>
       <c r="D35" t="n">
-        <v>844.7931348248577</v>
+        <v>925.1920252167099</v>
       </c>
       <c r="E35" t="n">
-        <v>457.8052199205269</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="F35" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="G35" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H35" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2471.287047559323</v>
+        <v>2476.983416304668</v>
       </c>
       <c r="S35" t="n">
-        <v>2292.00071659582</v>
+        <v>2297.697085341165</v>
       </c>
       <c r="T35" t="n">
-        <v>2292.00071659582</v>
+        <v>2077.985036200346</v>
       </c>
       <c r="U35" t="n">
-        <v>2292.00071659582</v>
+        <v>2077.985036200346</v>
       </c>
       <c r="V35" t="n">
-        <v>1960.148977684184</v>
+        <v>2077.985036200346</v>
       </c>
       <c r="W35" t="n">
-        <v>1606.078152431099</v>
+        <v>2077.985036200346</v>
       </c>
       <c r="X35" t="n">
-        <v>1606.078152431099</v>
+        <v>1703.377360310276</v>
       </c>
       <c r="Y35" t="n">
-        <v>1215.485150662174</v>
+        <v>1312.784358541351</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
-        <v>554.2109751950592</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E36" t="n">
-        <v>396.6014461979139</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>251.6456562145308</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
@@ -7019,22 +7019,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L36" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N36" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="E37" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="F37" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G37" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I37" t="n">
         <v>50.71143199091319</v>
@@ -7116,31 +7116,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>431.4413288795672</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="U37" t="n">
-        <v>306.2026956948922</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="V37" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="W37" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="X37" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1177.787165344879</v>
+        <v>1167.870918799008</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.787165344879</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.787165344879</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="E38" t="n">
-        <v>790.7992504405483</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F38" t="n">
-        <v>379.3913075309111</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G38" t="n">
         <v>379.3913075309111</v>
@@ -7180,7 +7180,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7204,22 +7204,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455001</v>
+        <v>2150.466753176866</v>
       </c>
       <c r="U38" t="n">
-        <v>2072.288667455001</v>
+        <v>1896.549419942163</v>
       </c>
       <c r="V38" t="n">
-        <v>1740.436928543366</v>
+        <v>1896.549419942163</v>
       </c>
       <c r="W38" t="n">
-        <v>1552.394841234949</v>
+        <v>1542.478594689078</v>
       </c>
       <c r="X38" t="n">
-        <v>1177.787165344879</v>
+        <v>1167.870918799008</v>
       </c>
       <c r="Y38" t="n">
-        <v>1177.787165344879</v>
+        <v>1167.870918799008</v>
       </c>
     </row>
     <row r="39">
@@ -7232,16 +7232,16 @@
         <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D39" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E39" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F39" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G39" t="n">
         <v>220.0009863964076</v>
@@ -7253,22 +7253,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K39" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L39" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
         <v>2370.209254145837</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G40" t="n">
         <v>50.71143199091319</v>
@@ -7353,31 +7353,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q40" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>496.4361755452314</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S40" t="n">
-        <v>281.6639118382623</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="T40" t="n">
-        <v>53.43541385018935</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="U40" t="n">
-        <v>50.71143199091319</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="V40" t="n">
-        <v>50.71143199091319</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>388.7595704965035</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>388.7595704965035</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>803.4524250390716</v>
+        <v>1139.207705612183</v>
       </c>
       <c r="C41" t="n">
-        <v>627.3118302031619</v>
+        <v>1139.207705612183</v>
       </c>
       <c r="D41" t="n">
-        <v>627.3118302031619</v>
+        <v>1139.207705612183</v>
       </c>
       <c r="E41" t="n">
-        <v>627.3118302031619</v>
+        <v>752.2197907078526</v>
       </c>
       <c r="F41" t="n">
-        <v>627.3118302031619</v>
+        <v>340.8118477982153</v>
       </c>
       <c r="G41" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I41" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724806</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535817</v>
       </c>
       <c r="M41" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7438,25 +7438,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T41" t="n">
-        <v>2251.574998418504</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U41" t="n">
-        <v>2251.574998418504</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V41" t="n">
-        <v>1919.723259506869</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="W41" t="n">
-        <v>1565.652434253783</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="X41" t="n">
-        <v>1191.044758363713</v>
+        <v>1917.39304070575</v>
       </c>
       <c r="Y41" t="n">
-        <v>1191.044758363713</v>
+        <v>1526.800038936825</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E42" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F42" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G42" t="n">
-        <v>218.2331947084326</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
-        <v>113.1535696726929</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K42" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L42" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M42" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N42" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O42" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
         <v>2370.209254145837</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>203.0925760230654</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="C43" t="n">
-        <v>203.0925760230654</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="D43" t="n">
-        <v>203.0925760230654</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>203.0925760230654</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>203.0925760230654</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
         <v>50.71143199091319</v>
@@ -7608,13 +7608,13 @@
         <v>424.0508324551545</v>
       </c>
       <c r="W43" t="n">
-        <v>424.0508324551545</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="X43" t="n">
-        <v>424.0508324551545</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.0925760230654</v>
+        <v>135.0684315587752</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>797.9061476574645</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9061476574645</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="D44" t="n">
-        <v>437.699346895244</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E44" t="n">
-        <v>50.71143199091319</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F44" t="n">
         <v>50.71143199091319</v>
@@ -7648,19 +7648,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724809</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S44" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T44" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U44" t="n">
-        <v>1818.371334220299</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V44" t="n">
-        <v>1818.371334220299</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W44" t="n">
-        <v>1818.371334220299</v>
+        <v>1528.58506095355</v>
       </c>
       <c r="X44" t="n">
-        <v>1576.091482751031</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="Y44" t="n">
-        <v>1185.498480982106</v>
+        <v>849.7117082251918</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>832.9084402786798</v>
+        <v>874.5523969142982</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>701.7992818361154</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>554.2109751950592</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>396.6014461979139</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>251.6456562145308</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H45" t="n">
         <v>114.9213613606679</v>
@@ -7727,52 +7727,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K45" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L45" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M45" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N45" t="n">
-        <v>1620.913172155677</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O45" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P45" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2481.698134656769</v>
+        <v>2523.342091292387</v>
       </c>
       <c r="S45" t="n">
-        <v>2323.528421865784</v>
+        <v>2365.172378501402</v>
       </c>
       <c r="T45" t="n">
-        <v>2125.854233501242</v>
+        <v>2167.498190136861</v>
       </c>
       <c r="U45" t="n">
-        <v>1898.972060912078</v>
+        <v>1940.616017547696</v>
       </c>
       <c r="V45" t="n">
-        <v>1664.720817437679</v>
+        <v>1706.364774073297</v>
       </c>
       <c r="W45" t="n">
-        <v>1412.206325771012</v>
+        <v>1453.85028240663</v>
       </c>
       <c r="X45" t="n">
-        <v>1205.67942717659</v>
+        <v>1247.323383812208</v>
       </c>
       <c r="Y45" t="n">
-        <v>999.9509914002402</v>
+        <v>1041.594948035859</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="C46" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="D46" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="E46" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G46" t="n">
         <v>50.71143199091319</v>
@@ -7833,25 +7833,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>679.5420961591335</v>
+        <v>622.8593882192725</v>
       </c>
       <c r="T46" t="n">
-        <v>560.5806051775699</v>
+        <v>622.8593882192725</v>
       </c>
       <c r="U46" t="n">
-        <v>271.6696884230023</v>
+        <v>622.8593882192725</v>
       </c>
       <c r="V46" t="n">
-        <v>271.6696884230023</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="W46" t="n">
-        <v>271.6696884230023</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="X46" t="n">
-        <v>271.6696884230023</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>245.5834786466338</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>215.3400086422638</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8297,10 +8297,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
@@ -8312,10 +8312,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>167.4104304051884</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8537,19 +8537,19 @@
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>312.5243469546755</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>399.2016060198332</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
         <v>218.4803792452831</v>
@@ -8771,7 +8771,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9008,13 +9008,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>465.3235657432995</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
         <v>498.5160693172957</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9251,7 +9251,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>298.290893622267</v>
       </c>
       <c r="N18" t="n">
         <v>498.5160693172957</v>
@@ -9260,7 +9260,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>312.4736966395624</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,13 +9716,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L24" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
@@ -9962,7 +9962,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>368.6962349650029</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
         <v>498.5160693172957</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10436,7 +10436,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>298.290893622267</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
         <v>498.5160693172957</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10667,7 +10667,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10682,10 +10682,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10919,7 +10919,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11153,10 +11153,10 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
-        <v>409.6168120477987</v>
+        <v>293.9797807128016</v>
       </c>
       <c r="P42" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789566</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>229.9994641235247</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>8.921646661975927</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>41.22751706926215</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
@@ -23463,10 +23463,10 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>22.26301254018782</v>
       </c>
       <c r="T13" t="n">
         <v>225.9462130081922</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>64.69544399831486</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>223.0587225113832</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>236.1214519840362</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23560,7 +23560,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>145.1604112160576</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -23700,19 +23700,19 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>69.15889454260974</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>355.3067573738029</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>200.1135928434054</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.2563458546446</v>
+        <v>91.92161561464246</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>130.8468883556623</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>115.6367923013789</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23989,7 +23989,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>48.50673645044877</v>
+        <v>135.9047838526273</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
         <v>217.5149286494106</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>9.899293949320366</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>145.2563458546445</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.2931082354203</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24150,7 +24150,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>175.5182399560914</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>196.41134411493</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>274.1933887055919</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>41.22751706926218</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.6686349500177</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>216.0519318270848</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.0218075870219</v>
@@ -24426,13 +24426,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>282.9678964907109</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>256.7307705683832</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>228.4495567603303</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>81.68851577858734</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9.899293949320253</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>131.6445923536478</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -24615,7 +24615,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>79.15361633265641</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
         <v>286.0218075870219</v>
@@ -24669,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>325.3930767845979</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24745,10 +24745,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>285.8195968556811</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.7951040594931</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.750113771095329</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
-        <v>37.899452863685</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
         <v>212.6245410698995</v>
@@ -24894,16 +24894,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>237.7611243562208</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.476307832840405</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.750113771095243</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>9.911940626057088</v>
       </c>
       <c r="H34" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>49.35397375491781</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.3836340012752</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.271013430223263</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.639405057891473</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>41.22751706926221</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853823</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -25329,10 +25329,10 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>49.35397375491781</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>46.04144444825926</v>
       </c>
       <c r="U37" t="n">
-        <v>162.0355607341936</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25393,19 +25393,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>77.39630486464605</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>164.3684505652225</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.750113771095243</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>73.02948353478766</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>283.3250655463385</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>192.605906791392</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>126.4103078272438</v>
       </c>
       <c r="H41" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,13 +25712,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.750113771095215</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>65.49213694233595</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>16.47377159750138</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.6097194764729</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>131.0045461765944</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>85.46405168133106</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.22751706926212</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
@@ -26073,16 +26073,16 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>156.5086602094371</v>
       </c>
       <c r="T46" t="n">
-        <v>108.1743369364441</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>840100.2699519887</v>
+        <v>840100.2699519888</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>840100.2699519888</v>
+        <v>840100.2699519887</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576136.0152147983</v>
+        <v>576136.0152147984</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576136.0152147984</v>
+        <v>576136.0152147983</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576136.0152147984</v>
+        <v>576136.0152147983</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576136.0152147984</v>
+        <v>576136.0152147985</v>
       </c>
     </row>
     <row r="14">
@@ -26316,34 +26316,34 @@
         <v>610439.5564612023</v>
       </c>
       <c r="C2" t="n">
-        <v>610439.5564612024</v>
+        <v>610439.5564612026</v>
       </c>
       <c r="D2" t="n">
-        <v>610439.5564612021</v>
+        <v>610439.5564612023</v>
       </c>
       <c r="E2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="F2" t="n">
-        <v>411521.9655491573</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="G2" t="n">
-        <v>411521.9655491572</v>
+        <v>411521.9655491571</v>
       </c>
       <c r="H2" t="n">
         <v>411521.9655491572</v>
       </c>
       <c r="I2" t="n">
+        <v>411521.9655491571</v>
+      </c>
+      <c r="J2" t="n">
+        <v>411521.9655491571</v>
+      </c>
+      <c r="K2" t="n">
+        <v>411521.9655491573</v>
+      </c>
+      <c r="L2" t="n">
         <v>411521.9655491572</v>
-      </c>
-      <c r="J2" t="n">
-        <v>411521.9655491572</v>
-      </c>
-      <c r="K2" t="n">
-        <v>411521.9655491572</v>
-      </c>
-      <c r="L2" t="n">
-        <v>411521.9655491573</v>
       </c>
       <c r="M2" t="n">
         <v>411521.9655491572</v>
@@ -26352,10 +26352,10 @@
         <v>411521.9655491572</v>
       </c>
       <c r="O2" t="n">
+        <v>411521.9655491574</v>
+      </c>
+      <c r="P2" t="n">
         <v>411521.9655491572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>411521.9655491574</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853739</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294307.900634572</v>
+        <v>294295.4166270527</v>
       </c>
       <c r="C4" t="n">
-        <v>294307.9006345719</v>
+        <v>294295.4166270527</v>
       </c>
       <c r="D4" t="n">
-        <v>294307.900634572</v>
+        <v>294295.4166270527</v>
       </c>
       <c r="E4" t="n">
-        <v>29023.71602661982</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="F4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="G4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="H4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="I4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="J4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="K4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="L4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="M4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="N4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="O4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
       <c r="P4" t="n">
-        <v>29023.71602661981</v>
+        <v>29010.63158584048</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173908.7879725211</v>
+        <v>173921.2719800404</v>
       </c>
       <c r="C6" t="n">
-        <v>265827.6003402611</v>
+        <v>265840.0843477804</v>
       </c>
       <c r="D6" t="n">
-        <v>265827.6003402607</v>
+        <v>265840.0843477802</v>
       </c>
       <c r="E6" t="n">
-        <v>-18983.4414798176</v>
+        <v>-25600.94340277322</v>
       </c>
       <c r="F6" t="n">
-        <v>337205.9884068627</v>
+        <v>330588.486483907</v>
       </c>
       <c r="G6" t="n">
-        <v>337205.9884068626</v>
+        <v>330588.4864839069</v>
       </c>
       <c r="H6" t="n">
-        <v>337205.9884068626</v>
+        <v>330588.486483907</v>
       </c>
       <c r="I6" t="n">
-        <v>337205.9884068626</v>
+        <v>330588.486483907</v>
       </c>
       <c r="J6" t="n">
-        <v>265441.2759187764</v>
+        <v>258823.7739958207</v>
       </c>
       <c r="K6" t="n">
-        <v>337205.9884068626</v>
+        <v>330588.4864839072</v>
       </c>
       <c r="L6" t="n">
-        <v>337205.9884068627</v>
+        <v>330588.4864839071</v>
       </c>
       <c r="M6" t="n">
-        <v>247589.9641083251</v>
+        <v>240972.4621853696</v>
       </c>
       <c r="N6" t="n">
-        <v>337205.9884068626</v>
+        <v>330588.486483907</v>
       </c>
       <c r="O6" t="n">
-        <v>337205.9884068626</v>
+        <v>330588.4864839072</v>
       </c>
       <c r="P6" t="n">
-        <v>337205.9884068627</v>
+        <v>330588.486483907</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="I3" t="n">
         <v>309.705174430311</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>298.104180921919</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>76.9751689362698</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>7.315615562906231</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>197.8104129836629</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>83.31686595595288</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -27584,7 +27584,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -27593,7 +27593,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>92.70128833734015</v>
+        <v>267.9060180078989</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -27639,7 +27639,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>138.081527794645</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -27700,13 +27700,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>99.31905985929176</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,10 +27751,10 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>219.2090502582742</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27788,19 +27788,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>157.5094188037367</v>
       </c>
       <c r="H7" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>238.7359567470885</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>168.8426672044936</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -27921,7 +27921,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>111.4162169823346</v>
+        <v>34.43278373319745</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28079,7 +28079,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H20" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
@@ -32478,10 +32478,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N20" t="n">
         <v>222.1566574333125</v>
@@ -32490,22 +32490,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P20" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S20" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I21" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K21" t="n">
         <v>107.5699566698185</v>
@@ -32563,7 +32563,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N21" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O21" t="n">
         <v>158.4960056351046</v>
@@ -32572,19 +32572,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S21" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T21" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H22" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
@@ -32633,37 +32633,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L22" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M22" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P22" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R22" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T22" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>110.4929583612564</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.85777890839283</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
@@ -35032,10 +35032,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>36.7853831762164</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>177.4338266692982</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>271.1434367385833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>81.99814951141209</v>
@@ -35491,7 +35491,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L12" t="n">
         <v>395.2245205299612</v>
@@ -35500,7 +35500,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
@@ -35728,13 +35728,13 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M15" t="n">
-        <v>495.5322027338511</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N15" t="n">
         <v>543.714571154376</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M18" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N18" t="n">
         <v>543.714571154376</v>
@@ -35980,7 +35980,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
         <v>167.0326721210326</v>
@@ -36129,19 +36129,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M20" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N20" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O20" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P20" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.40534134273584</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M21" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>357.6721984766427</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L24" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M24" t="n">
         <v>514.5419032905515</v>
@@ -36682,7 +36682,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M27" t="n">
-        <v>398.9048719555545</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
         <v>543.714571154376</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M30" t="n">
         <v>514.5419032905515</v>
@@ -36931,7 +36931,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37156,7 +37156,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M33" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
         <v>543.714571154376</v>
@@ -37168,7 +37168,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
@@ -37402,10 +37402,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L39" t="n">
         <v>395.2245205299612</v>
@@ -37639,7 +37639,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
         <v>167.0326721210326</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37873,10 +37873,10 @@
         <v>543.714571154376</v>
       </c>
       <c r="O42" t="n">
-        <v>429.0814793495699</v>
+        <v>313.4444480145728</v>
       </c>
       <c r="P42" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
         <v>167.0326721210326</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0124396425415</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
         <v>280.8981351873249</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
@@ -38107,7 +38107,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
@@ -38116,7 +38116,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
